--- a/documentation/gantt-chart_[GROUP-3]ms.xlsx
+++ b/documentation/gantt-chart_[GROUP-3]ms.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Emdedded Systems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Emdedded Systems\GROUP-3 PROJECT\Smart-Water-Level-Monitoring-System\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9797F2F6-AEE6-4903-B5E8-EF8277062490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD78A54F-3B93-486C-A425-12FE4DF8054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
   <si>
     <t>Task 3</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>Task 2</t>
-  </si>
-  <si>
-    <t>Insert new rows ABOVE this one</t>
   </si>
   <si>
     <t>Project Start:</t>
@@ -159,9 +156,6 @@
     <t>This template provides a simple way to create a Gantt chart to help visualize and track your project. Simply enter your tasks and start and end dates - no formulas required. The bars in the Gantt chart represent the duration of the task and are displayed using conditional formatting. Insert new tasks by inserting new rows.</t>
   </si>
   <si>
-    <t>Phase 5 Title</t>
-  </si>
-  <si>
     <t>Click on the link below to visit vertex42.com and learn more about how to use this template, such as how to calculate days and work days, create task dependencies, change the colors of the bars, add a scroll bar to make it easier to change the display week, extend the date range displayed in the chart, etc.</t>
   </si>
   <si>
@@ -262,6 +256,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Phase 5: Analysis</t>
   </si>
 </sst>
 </file>
@@ -1556,8 +1553,8 @@
   <dimension ref="A1:BL42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AQ2" sqref="AQ2"/>
+      <pane ySplit="6" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,7 +1573,7 @@
   <sheetData>
     <row r="1" spans="1:64" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -1587,10 +1584,10 @@
     </row>
     <row r="2" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="99">
         <v>45811</v>
@@ -1620,10 +1617,10 @@
     </row>
     <row r="3" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" s="99">
         <v>45811</v>
@@ -1632,7 +1629,7 @@
     </row>
     <row r="4" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
@@ -1949,23 +1946,23 @@
     <row r="6" spans="1:64" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" s="15" t="str">
         <f t="shared" ref="I6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
@@ -2264,7 +2261,7 @@
     <row r="8" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="26"/>
@@ -2335,10 +2332,10 @@
     <row r="9" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="31">
         <v>1</v>
@@ -2414,10 +2411,10 @@
     <row r="10" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" s="31">
         <v>1</v>
@@ -2493,10 +2490,10 @@
     <row r="11" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="31">
         <v>0.92</v>
@@ -2572,10 +2569,10 @@
     <row r="12" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" s="31">
         <v>0.88</v>
@@ -2651,10 +2648,10 @@
     <row r="13" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" s="31">
         <v>1</v>
@@ -2730,7 +2727,7 @@
     <row r="14" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="36"/>
@@ -2801,10 +2798,10 @@
     <row r="15" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" s="41">
         <v>0.98</v>
@@ -2880,10 +2877,10 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" s="41">
         <v>1</v>
@@ -2959,10 +2956,10 @@
     <row r="17" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D17" s="41">
         <v>1</v>
@@ -3038,10 +3035,10 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="41">
         <v>1</v>
@@ -3117,10 +3114,10 @@
     <row r="19" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" s="41">
         <v>1</v>
@@ -3196,7 +3193,7 @@
     <row r="20" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" s="45"/>
       <c r="D20" s="46"/>
@@ -3267,10 +3264,10 @@
     <row r="21" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" s="51">
         <v>0.9</v>
@@ -3346,10 +3343,10 @@
     <row r="22" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="49" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D22" s="51">
         <v>0.4</v>
@@ -3425,10 +3422,10 @@
     <row r="23" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D23" s="51">
         <v>0.5</v>
@@ -3504,10 +3501,10 @@
     <row r="24" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D24" s="51">
         <v>0.68</v>
@@ -3583,10 +3580,10 @@
     <row r="25" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="49" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D25" s="51">
         <v>0.69</v>
@@ -3662,7 +3659,7 @@
     <row r="26" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26" s="55"/>
       <c r="D26" s="56"/>
@@ -3733,10 +3730,10 @@
     <row r="27" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" s="60" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D27" s="61">
         <v>0.1</v>
@@ -3816,7 +3813,7 @@
       </c>
       <c r="C28" s="60"/>
       <c r="D28" s="61" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E28" s="62">
         <v>43494</v>
@@ -4114,7 +4111,7 @@
     <row r="32" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="64" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C32" s="65"/>
       <c r="D32" s="66"/>
@@ -4766,9 +4763,7 @@
     </row>
     <row r="41" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="17"/>
-      <c r="B41" s="74" t="s">
-        <v>5</v>
-      </c>
+      <c r="B41" s="74"/>
       <c r="C41" s="75"/>
       <c r="D41" s="76"/>
       <c r="E41" s="77"/>
@@ -4929,29 +4924,29 @@
     <row r="1" spans="2:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:3" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="84"/>
     </row>
     <row r="3" spans="2:3" s="87" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="86"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="94" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:3" s="88" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B6" s="90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="60" x14ac:dyDescent="0.2">
       <c r="B7" s="91" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15" x14ac:dyDescent="0.2">
@@ -4959,17 +4954,17 @@
     </row>
     <row r="9" spans="2:3" s="88" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B9" s="90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="60" x14ac:dyDescent="0.2">
       <c r="B10" s="91" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B11" s="92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15" x14ac:dyDescent="0.2">
@@ -4986,17 +4981,17 @@
     </row>
     <row r="15" spans="2:3" s="88" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B15" s="90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="30" x14ac:dyDescent="0.2">
       <c r="B16" s="91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B17" s="92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="15" x14ac:dyDescent="0.2">
@@ -5004,12 +4999,12 @@
     </row>
     <row r="19" spans="2:2" s="88" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B19" s="90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="60" x14ac:dyDescent="0.2">
       <c r="B20" s="91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.2">
@@ -5017,7 +5012,7 @@
     </row>
     <row r="22" spans="2:2" ht="75" x14ac:dyDescent="0.2">
       <c r="B22" s="91" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/gantt-chart_[GROUP-3]ms.xlsx
+++ b/documentation/gantt-chart_[GROUP-3]ms.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Emdedded Systems\GROUP-3 PROJECT\Smart-Water-Level-Monitoring-System\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Reccess\Emdedded Systems\GROUP-3 PROJECT\Smart-Water-Level-Monitoring-System\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD78A54F-3B93-486C-A425-12FE4DF8054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD4C8C5-1415-4C94-91E0-94A166434BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="About" sheetId="12" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ProjectSchedule!$1:$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ProjectSchedule!$1:$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">ProjectSchedule!$4:$6</definedName>
     <definedName name="task_end" localSheetId="0">ProjectSchedule!$F1</definedName>
     <definedName name="task_progress" localSheetId="0">ProjectSchedule!$D1</definedName>
@@ -26,6 +26,7 @@
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -78,22 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
-  <si>
-    <t>Task 3</t>
-  </si>
-  <si>
-    <t>Task 4</t>
-  </si>
-  <si>
-    <t>Task 5</t>
-  </si>
-  <si>
-    <t>Task 1</t>
-  </si>
-  <si>
-    <t>Task 2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
   <si>
     <t>Project Start:</t>
   </si>
@@ -225,40 +211,112 @@
     <t>Phase 3: Design</t>
   </si>
   <si>
-    <t>Proposal Draft (2)</t>
-  </si>
-  <si>
-    <t>Gantt Chart</t>
-  </si>
-  <si>
-    <t>Dino &amp; Emma</t>
-  </si>
-  <si>
-    <t>Poster</t>
-  </si>
-  <si>
     <t>Keith</t>
   </si>
   <si>
     <t>Website Design</t>
   </si>
   <si>
-    <t>Progress Report</t>
-  </si>
-  <si>
     <t>Requirement-Gathering</t>
   </si>
   <si>
-    <t>Phase 4: Presentation</t>
-  </si>
-  <si>
-    <t>Task 1: SV meeting</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Phase 5: Analysis</t>
+    <t>Block Diagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Keith</t>
+  </si>
+  <si>
+    <t>System Architecture</t>
+  </si>
+  <si>
+    <t>Gantt Chart Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allan </t>
+  </si>
+  <si>
+    <t>Phase 4: Implementation</t>
+  </si>
+  <si>
+    <t>Hardware Schematic &amp; Pinout Design</t>
+  </si>
+  <si>
+    <t>GROUP-3</t>
+  </si>
+  <si>
+    <t>By Keith</t>
+  </si>
+  <si>
+    <t>Allan &amp; Emma</t>
+  </si>
+  <si>
+    <t>Keith &amp; Dino</t>
+  </si>
+  <si>
+    <t>Dino &amp; Allan</t>
+  </si>
+  <si>
+    <t>Phase 5: Testing &amp; Validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emma </t>
+  </si>
+  <si>
+    <t>Dino &amp; Keith</t>
+  </si>
+  <si>
+    <t>Phase 6: Deliverables (Documentation)</t>
+  </si>
+  <si>
+    <t>Task 1:  Poster</t>
+  </si>
+  <si>
+    <t>Emma &amp; Dino</t>
+  </si>
+  <si>
+    <t>Task 2: Schematic Diagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task 3: Architecture </t>
+  </si>
+  <si>
+    <t>Task 4: Final Report</t>
+  </si>
+  <si>
+    <t>Keith &amp; Allan</t>
+  </si>
+  <si>
+    <t>Task 5: SRS Report</t>
+  </si>
+  <si>
+    <t>Supervisor meeting</t>
+  </si>
+  <si>
+    <t>Hardware Assembly &amp;,Wiring</t>
+  </si>
+  <si>
+    <t>Firmware Development (Arduino Code)</t>
+  </si>
+  <si>
+    <t>ThingSpeak Channel Setup</t>
+  </si>
+  <si>
+    <t>Website-ThingSpeak integration</t>
+  </si>
+  <si>
+    <t>Unit Testing</t>
+  </si>
+  <si>
+    <t>Integrtion Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Testing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debugging </t>
+  </si>
+  <si>
+    <t>Firmware Modification</t>
   </si>
 </sst>
 </file>
@@ -271,7 +329,7 @@
     <numFmt numFmtId="166" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="167" formatCode="d"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,8 +514,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -546,6 +617,12 @@
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -695,7 +772,7 @@
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -993,6 +1070,30 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="16" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1001,6 +1102,18 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="12">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1018,18 +1131,6 @@
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -1548,13 +1649,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
+    <tabColor theme="2" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL42"/>
+  <dimension ref="A1:BL48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <pane ySplit="6" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,12 +1670,13 @@
     <col min="7" max="7" width="2.7109375" customWidth="1"/>
     <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
     <col min="9" max="64" width="2.5703125" customWidth="1"/>
+    <col min="65" max="65" width="9.140625" customWidth="1"/>
     <col min="69" max="70" width="10.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -1584,10 +1687,10 @@
     </row>
     <row r="2" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E2" s="99">
         <v>45811</v>
@@ -1617,19 +1720,22 @@
     </row>
     <row r="3" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3" s="99">
-        <v>45811</v>
+        <v>45866</v>
       </c>
       <c r="F3" s="100"/>
     </row>
     <row r="4" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
       <c r="D4" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
@@ -1946,23 +2052,23 @@
     <row r="6" spans="1:64" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I6" s="15" t="str">
         <f t="shared" ref="I6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
@@ -2198,7 +2304,7 @@
       <c r="F7" s="22"/>
       <c r="G7" s="23"/>
       <c r="H7" s="23" t="str">
-        <f t="shared" ref="H7:H41" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H7:H47" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I7" s="80"/>
@@ -2261,7 +2367,7 @@
     <row r="8" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="24" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="26"/>
@@ -2332,10 +2438,10 @@
     <row r="9" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="29" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D9" s="31">
         <v>1</v>
@@ -2411,10 +2517,10 @@
     <row r="10" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="29" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D10" s="31">
         <v>1</v>
@@ -2490,13 +2596,13 @@
     <row r="11" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="29" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D11" s="31">
-        <v>0.92</v>
+        <v>0.78</v>
       </c>
       <c r="E11" s="32">
         <v>45812</v>
@@ -2569,10 +2675,10 @@
     <row r="12" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="29" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D12" s="31">
         <v>0.88</v>
@@ -2648,10 +2754,10 @@
     <row r="13" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D13" s="31">
         <v>1</v>
@@ -2727,7 +2833,7 @@
     <row r="14" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="34" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="36"/>
@@ -2798,10 +2904,10 @@
     <row r="15" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="39" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D15" s="41">
         <v>0.98</v>
@@ -2877,10 +2983,10 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="39" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D16" s="41">
         <v>1</v>
@@ -2956,10 +3062,10 @@
     <row r="17" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="39" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D17" s="41">
         <v>1</v>
@@ -3035,10 +3141,10 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="40" t="s">
         <v>43</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>52</v>
       </c>
       <c r="D18" s="41">
         <v>1</v>
@@ -3114,10 +3220,10 @@
     <row r="19" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="39" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D19" s="41">
         <v>1</v>
@@ -3193,7 +3299,7 @@
     <row r="20" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="44" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C20" s="45"/>
       <c r="D20" s="46"/>
@@ -3267,7 +3373,7 @@
         <v>48</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D21" s="51">
         <v>0.9</v>
@@ -3346,10 +3452,10 @@
         <v>49</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D22" s="51">
-        <v>0.4</v>
+        <v>0.78</v>
       </c>
       <c r="E22" s="52">
         <v>45827</v>
@@ -3422,13 +3528,13 @@
     <row r="23" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="49" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D23" s="51">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E23" s="52">
         <v>45827</v>
@@ -3501,10 +3607,10 @@
     <row r="24" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="49" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D24" s="51">
         <v>0.68</v>
@@ -3580,10 +3686,10 @@
     <row r="25" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D25" s="51">
         <v>0.69</v>
@@ -3659,7 +3765,7 @@
     <row r="26" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="54" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C26" s="55"/>
       <c r="D26" s="56"/>
@@ -3730,13 +3836,13 @@
     <row r="27" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="59" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C27" s="60" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D27" s="61">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="E27" s="62">
         <v>45835</v>
@@ -3809,22 +3915,24 @@
     <row r="28" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="61" t="s">
-        <v>58</v>
+        <v>70</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="61">
+        <v>0.86</v>
       </c>
       <c r="E28" s="62">
-        <v>43494</v>
+        <v>45834</v>
       </c>
       <c r="F28" s="63">
-        <v>43498</v>
+        <v>45835</v>
       </c>
       <c r="G28" s="23"/>
       <c r="H28" s="23">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I28" s="80"/>
       <c r="J28" s="80"/>
@@ -3886,20 +3994,24 @@
     <row r="29" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="61"/>
+        <v>71</v>
+      </c>
+      <c r="C29" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="61">
+        <v>0.92</v>
+      </c>
       <c r="E29" s="62">
-        <v>43499</v>
+        <v>45836</v>
       </c>
       <c r="F29" s="63">
-        <v>43502</v>
+        <v>45850</v>
       </c>
       <c r="G29" s="23"/>
       <c r="H29" s="23">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I29" s="80"/>
       <c r="J29" s="80"/>
@@ -3961,20 +4073,24 @@
     <row r="30" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="61">
         <v>1</v>
       </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="61"/>
       <c r="E30" s="62">
-        <v>43499</v>
+        <v>45841</v>
       </c>
       <c r="F30" s="63">
-        <v>43502</v>
+        <v>45847</v>
       </c>
       <c r="G30" s="23"/>
       <c r="H30" s="23">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I30" s="80"/>
       <c r="J30" s="80"/>
@@ -4036,20 +4152,24 @@
     <row r="31" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
       <c r="B31" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="61"/>
+        <v>73</v>
+      </c>
+      <c r="C31" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="61">
+        <v>1</v>
+      </c>
       <c r="E31" s="62">
-        <v>43503</v>
+        <v>45850</v>
       </c>
       <c r="F31" s="63">
-        <v>43507</v>
+        <v>45853</v>
       </c>
       <c r="G31" s="23"/>
       <c r="H31" s="23">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I31" s="80"/>
       <c r="J31" s="80"/>
@@ -4111,7 +4231,7 @@
     <row r="32" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" s="65"/>
       <c r="D32" s="66"/>
@@ -4182,20 +4302,24 @@
     <row r="33" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="70"/>
-      <c r="D33" s="71"/>
+        <v>74</v>
+      </c>
+      <c r="C33" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="71">
+        <v>1</v>
+      </c>
       <c r="E33" s="72">
-        <v>43501</v>
+        <v>45853</v>
       </c>
       <c r="F33" s="73">
-        <v>43506</v>
+        <v>45856</v>
       </c>
       <c r="G33" s="23"/>
       <c r="H33" s="23">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I33" s="80"/>
       <c r="J33" s="80"/>
@@ -4257,15 +4381,19 @@
     <row r="34" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="70"/>
-      <c r="D34" s="71"/>
+        <v>75</v>
+      </c>
+      <c r="C34" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="71">
+        <v>0.97</v>
+      </c>
       <c r="E34" s="72">
-        <v>43501</v>
+        <v>45854</v>
       </c>
       <c r="F34" s="73">
-        <v>43503</v>
+        <v>45856</v>
       </c>
       <c r="G34" s="23"/>
       <c r="H34" s="23">
@@ -4332,20 +4460,24 @@
     <row r="35" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="70"/>
-      <c r="D35" s="71"/>
+        <v>76</v>
+      </c>
+      <c r="C35" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="71">
+        <v>0.99</v>
+      </c>
       <c r="E35" s="72">
-        <v>43504</v>
+        <v>45856</v>
       </c>
       <c r="F35" s="73">
-        <v>43509</v>
+        <v>45863</v>
       </c>
       <c r="G35" s="23"/>
       <c r="H35" s="23">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I35" s="80"/>
       <c r="J35" s="80"/>
@@ -4407,20 +4539,24 @@
     <row r="36" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="70"/>
-      <c r="D36" s="71"/>
+        <v>77</v>
+      </c>
+      <c r="C36" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="71">
+        <v>0.92</v>
+      </c>
       <c r="E36" s="72">
-        <v>43504</v>
+        <v>45855</v>
       </c>
       <c r="F36" s="73">
-        <v>43509</v>
+        <v>45864</v>
       </c>
       <c r="G36" s="23"/>
       <c r="H36" s="23">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I36" s="80"/>
       <c r="J36" s="80"/>
@@ -4482,21 +4618,22 @@
     <row r="37" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="69" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="70"/>
-      <c r="D37" s="71"/>
+        <v>78</v>
+      </c>
+      <c r="C37" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="71">
+        <v>1</v>
+      </c>
       <c r="E37" s="72">
-        <v>43504</v>
+        <v>45840</v>
       </c>
       <c r="F37" s="73">
-        <v>43508</v>
+        <v>45858</v>
       </c>
       <c r="G37" s="23"/>
-      <c r="H37" s="23">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
+      <c r="H37" s="23"/>
       <c r="I37" s="80"/>
       <c r="J37" s="80"/>
       <c r="K37" s="80"/>
@@ -4556,16 +4693,15 @@
     </row>
     <row r="38" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="22"/>
+      <c r="B38" s="106" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="102"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="105"/>
       <c r="G38" s="23"/>
-      <c r="H38" s="23" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="H38" s="23"/>
       <c r="I38" s="80"/>
       <c r="J38" s="80"/>
       <c r="K38" s="80"/>
@@ -4625,16 +4761,23 @@
     </row>
     <row r="39" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="22"/>
+      <c r="B39" s="107" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="108" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="71">
+        <v>1</v>
+      </c>
+      <c r="E39" s="47">
+        <v>45858</v>
+      </c>
+      <c r="F39" s="48">
+        <v>45862</v>
+      </c>
       <c r="G39" s="23"/>
-      <c r="H39" s="23" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="H39" s="23"/>
       <c r="I39" s="80"/>
       <c r="J39" s="80"/>
       <c r="K39" s="80"/>
@@ -4694,16 +4837,23 @@
     </row>
     <row r="40" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="22"/>
+      <c r="B40" s="109" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="108" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="71">
+        <v>1</v>
+      </c>
+      <c r="E40" s="47">
+        <v>45834</v>
+      </c>
+      <c r="F40" s="48">
+        <v>45835</v>
+      </c>
       <c r="G40" s="23"/>
-      <c r="H40" s="23" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="H40" s="23"/>
       <c r="I40" s="80"/>
       <c r="J40" s="80"/>
       <c r="K40" s="80"/>
@@ -4763,76 +4913,514 @@
     </row>
     <row r="41" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="17"/>
-      <c r="B41" s="74"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79" t="str">
+      <c r="B41" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="108" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="71">
+        <v>1</v>
+      </c>
+      <c r="E41" s="47">
+        <v>45833</v>
+      </c>
+      <c r="F41" s="48">
+        <v>45835</v>
+      </c>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="80"/>
+      <c r="K41" s="80"/>
+      <c r="L41" s="80"/>
+      <c r="M41" s="80"/>
+      <c r="N41" s="80"/>
+      <c r="O41" s="80"/>
+      <c r="P41" s="80"/>
+      <c r="Q41" s="80"/>
+      <c r="R41" s="80"/>
+      <c r="S41" s="80"/>
+      <c r="T41" s="80"/>
+      <c r="U41" s="80"/>
+      <c r="V41" s="80"/>
+      <c r="W41" s="80"/>
+      <c r="X41" s="80"/>
+      <c r="Y41" s="80"/>
+      <c r="Z41" s="80"/>
+      <c r="AA41" s="80"/>
+      <c r="AB41" s="80"/>
+      <c r="AC41" s="80"/>
+      <c r="AD41" s="80"/>
+      <c r="AE41" s="80"/>
+      <c r="AF41" s="80"/>
+      <c r="AG41" s="80"/>
+      <c r="AH41" s="80"/>
+      <c r="AI41" s="80"/>
+      <c r="AJ41" s="80"/>
+      <c r="AK41" s="80"/>
+      <c r="AL41" s="80"/>
+      <c r="AM41" s="80"/>
+      <c r="AN41" s="80"/>
+      <c r="AO41" s="80"/>
+      <c r="AP41" s="80"/>
+      <c r="AQ41" s="80"/>
+      <c r="AR41" s="80"/>
+      <c r="AS41" s="80"/>
+      <c r="AT41" s="80"/>
+      <c r="AU41" s="80"/>
+      <c r="AV41" s="80"/>
+      <c r="AW41" s="80"/>
+      <c r="AX41" s="80"/>
+      <c r="AY41" s="80"/>
+      <c r="AZ41" s="80"/>
+      <c r="BA41" s="80"/>
+      <c r="BB41" s="80"/>
+      <c r="BC41" s="80"/>
+      <c r="BD41" s="80"/>
+      <c r="BE41" s="80"/>
+      <c r="BF41" s="80"/>
+      <c r="BG41" s="80"/>
+      <c r="BH41" s="80"/>
+      <c r="BI41" s="80"/>
+      <c r="BJ41" s="80"/>
+      <c r="BK41" s="80"/>
+      <c r="BL41" s="80"/>
+    </row>
+    <row r="42" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="17"/>
+      <c r="B42" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="108" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="71">
+        <v>1</v>
+      </c>
+      <c r="E42" s="47">
+        <v>45861</v>
+      </c>
+      <c r="F42" s="48">
+        <v>45865</v>
+      </c>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="80"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="80"/>
+      <c r="L42" s="80"/>
+      <c r="M42" s="80"/>
+      <c r="N42" s="80"/>
+      <c r="O42" s="80"/>
+      <c r="P42" s="80"/>
+      <c r="Q42" s="80"/>
+      <c r="R42" s="80"/>
+      <c r="S42" s="80"/>
+      <c r="T42" s="80"/>
+      <c r="U42" s="80"/>
+      <c r="V42" s="80"/>
+      <c r="W42" s="80"/>
+      <c r="X42" s="80"/>
+      <c r="Y42" s="80"/>
+      <c r="Z42" s="80"/>
+      <c r="AA42" s="80"/>
+      <c r="AB42" s="80"/>
+      <c r="AC42" s="80"/>
+      <c r="AD42" s="80"/>
+      <c r="AE42" s="80"/>
+      <c r="AF42" s="80"/>
+      <c r="AG42" s="80"/>
+      <c r="AH42" s="80"/>
+      <c r="AI42" s="80"/>
+      <c r="AJ42" s="80"/>
+      <c r="AK42" s="80"/>
+      <c r="AL42" s="80"/>
+      <c r="AM42" s="80"/>
+      <c r="AN42" s="80"/>
+      <c r="AO42" s="80"/>
+      <c r="AP42" s="80"/>
+      <c r="AQ42" s="80"/>
+      <c r="AR42" s="80"/>
+      <c r="AS42" s="80"/>
+      <c r="AT42" s="80"/>
+      <c r="AU42" s="80"/>
+      <c r="AV42" s="80"/>
+      <c r="AW42" s="80"/>
+      <c r="AX42" s="80"/>
+      <c r="AY42" s="80"/>
+      <c r="AZ42" s="80"/>
+      <c r="BA42" s="80"/>
+      <c r="BB42" s="80"/>
+      <c r="BC42" s="80"/>
+      <c r="BD42" s="80"/>
+      <c r="BE42" s="80"/>
+      <c r="BF42" s="80"/>
+      <c r="BG42" s="80"/>
+      <c r="BH42" s="80"/>
+      <c r="BI42" s="80"/>
+      <c r="BJ42" s="80"/>
+      <c r="BK42" s="80"/>
+      <c r="BL42" s="80"/>
+    </row>
+    <row r="43" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="17"/>
+      <c r="B43" s="109" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="71">
+        <v>1</v>
+      </c>
+      <c r="E43" s="47">
+        <v>45861</v>
+      </c>
+      <c r="F43" s="48">
+        <v>45862</v>
+      </c>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I43" s="80"/>
+      <c r="J43" s="80"/>
+      <c r="K43" s="80"/>
+      <c r="L43" s="80"/>
+      <c r="M43" s="80"/>
+      <c r="N43" s="80"/>
+      <c r="O43" s="80"/>
+      <c r="P43" s="80"/>
+      <c r="Q43" s="80"/>
+      <c r="R43" s="80"/>
+      <c r="S43" s="80"/>
+      <c r="T43" s="80"/>
+      <c r="U43" s="80"/>
+      <c r="V43" s="80"/>
+      <c r="W43" s="80"/>
+      <c r="X43" s="80"/>
+      <c r="Y43" s="80"/>
+      <c r="Z43" s="80"/>
+      <c r="AA43" s="80"/>
+      <c r="AB43" s="80"/>
+      <c r="AC43" s="80"/>
+      <c r="AD43" s="80"/>
+      <c r="AE43" s="80"/>
+      <c r="AF43" s="80"/>
+      <c r="AG43" s="80"/>
+      <c r="AH43" s="80"/>
+      <c r="AI43" s="80"/>
+      <c r="AJ43" s="80"/>
+      <c r="AK43" s="80"/>
+      <c r="AL43" s="80"/>
+      <c r="AM43" s="80"/>
+      <c r="AN43" s="80"/>
+      <c r="AO43" s="80"/>
+      <c r="AP43" s="80"/>
+      <c r="AQ43" s="80"/>
+      <c r="AR43" s="80"/>
+      <c r="AS43" s="80"/>
+      <c r="AT43" s="80"/>
+      <c r="AU43" s="80"/>
+      <c r="AV43" s="80"/>
+      <c r="AW43" s="80"/>
+      <c r="AX43" s="80"/>
+      <c r="AY43" s="80"/>
+      <c r="AZ43" s="80"/>
+      <c r="BA43" s="80"/>
+      <c r="BB43" s="80"/>
+      <c r="BC43" s="80"/>
+      <c r="BD43" s="80"/>
+      <c r="BE43" s="80"/>
+      <c r="BF43" s="80"/>
+      <c r="BG43" s="80"/>
+      <c r="BH43" s="80"/>
+      <c r="BI43" s="80"/>
+      <c r="BJ43" s="80"/>
+      <c r="BK43" s="80"/>
+      <c r="BL43" s="80"/>
+    </row>
+    <row r="44" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="17"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I41" s="82"/>
-      <c r="J41" s="82"/>
-      <c r="K41" s="82"/>
-      <c r="L41" s="82"/>
-      <c r="M41" s="82"/>
-      <c r="N41" s="82"/>
-      <c r="O41" s="82"/>
-      <c r="P41" s="82"/>
-      <c r="Q41" s="82"/>
-      <c r="R41" s="82"/>
-      <c r="S41" s="82"/>
-      <c r="T41" s="82"/>
-      <c r="U41" s="82"/>
-      <c r="V41" s="82"/>
-      <c r="W41" s="82"/>
-      <c r="X41" s="82"/>
-      <c r="Y41" s="82"/>
-      <c r="Z41" s="82"/>
-      <c r="AA41" s="82"/>
-      <c r="AB41" s="82"/>
-      <c r="AC41" s="82"/>
-      <c r="AD41" s="82"/>
-      <c r="AE41" s="82"/>
-      <c r="AF41" s="82"/>
-      <c r="AG41" s="82"/>
-      <c r="AH41" s="82"/>
-      <c r="AI41" s="82"/>
-      <c r="AJ41" s="82"/>
-      <c r="AK41" s="82"/>
-      <c r="AL41" s="82"/>
-      <c r="AM41" s="82"/>
-      <c r="AN41" s="82"/>
-      <c r="AO41" s="82"/>
-      <c r="AP41" s="82"/>
-      <c r="AQ41" s="82"/>
-      <c r="AR41" s="82"/>
-      <c r="AS41" s="82"/>
-      <c r="AT41" s="82"/>
-      <c r="AU41" s="82"/>
-      <c r="AV41" s="82"/>
-      <c r="AW41" s="82"/>
-      <c r="AX41" s="82"/>
-      <c r="AY41" s="82"/>
-      <c r="AZ41" s="82"/>
-      <c r="BA41" s="82"/>
-      <c r="BB41" s="82"/>
-      <c r="BC41" s="82"/>
-      <c r="BD41" s="82"/>
-      <c r="BE41" s="82"/>
-      <c r="BF41" s="82"/>
-      <c r="BG41" s="82"/>
-      <c r="BH41" s="82"/>
-      <c r="BI41" s="82"/>
-      <c r="BJ41" s="82"/>
-      <c r="BK41" s="82"/>
-      <c r="BL41" s="82"/>
-    </row>
-    <row r="42" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="G42" s="6"/>
+      <c r="I44" s="80"/>
+      <c r="J44" s="80"/>
+      <c r="K44" s="80"/>
+      <c r="L44" s="80"/>
+      <c r="M44" s="80"/>
+      <c r="N44" s="80"/>
+      <c r="O44" s="80"/>
+      <c r="P44" s="80"/>
+      <c r="Q44" s="80"/>
+      <c r="R44" s="80"/>
+      <c r="S44" s="80"/>
+      <c r="T44" s="80"/>
+      <c r="U44" s="80"/>
+      <c r="V44" s="80"/>
+      <c r="W44" s="80"/>
+      <c r="X44" s="80"/>
+      <c r="Y44" s="80"/>
+      <c r="Z44" s="80"/>
+      <c r="AA44" s="80"/>
+      <c r="AB44" s="80"/>
+      <c r="AC44" s="80"/>
+      <c r="AD44" s="80"/>
+      <c r="AE44" s="80"/>
+      <c r="AF44" s="80"/>
+      <c r="AG44" s="80"/>
+      <c r="AH44" s="80"/>
+      <c r="AI44" s="80"/>
+      <c r="AJ44" s="80"/>
+      <c r="AK44" s="80"/>
+      <c r="AL44" s="80"/>
+      <c r="AM44" s="80"/>
+      <c r="AN44" s="80"/>
+      <c r="AO44" s="80"/>
+      <c r="AP44" s="80"/>
+      <c r="AQ44" s="80"/>
+      <c r="AR44" s="80"/>
+      <c r="AS44" s="80"/>
+      <c r="AT44" s="80"/>
+      <c r="AU44" s="80"/>
+      <c r="AV44" s="80"/>
+      <c r="AW44" s="80"/>
+      <c r="AX44" s="80"/>
+      <c r="AY44" s="80"/>
+      <c r="AZ44" s="80"/>
+      <c r="BA44" s="80"/>
+      <c r="BB44" s="80"/>
+      <c r="BC44" s="80"/>
+      <c r="BD44" s="80"/>
+      <c r="BE44" s="80"/>
+      <c r="BF44" s="80"/>
+      <c r="BG44" s="80"/>
+      <c r="BH44" s="80"/>
+      <c r="BI44" s="80"/>
+      <c r="BJ44" s="80"/>
+      <c r="BK44" s="80"/>
+      <c r="BL44" s="80"/>
+    </row>
+    <row r="45" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="17"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I45" s="80"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="80"/>
+      <c r="M45" s="80"/>
+      <c r="N45" s="80"/>
+      <c r="O45" s="80"/>
+      <c r="P45" s="80"/>
+      <c r="Q45" s="80"/>
+      <c r="R45" s="80"/>
+      <c r="S45" s="80"/>
+      <c r="T45" s="80"/>
+      <c r="U45" s="80"/>
+      <c r="V45" s="80"/>
+      <c r="W45" s="80"/>
+      <c r="X45" s="80"/>
+      <c r="Y45" s="80"/>
+      <c r="Z45" s="80"/>
+      <c r="AA45" s="80"/>
+      <c r="AB45" s="80"/>
+      <c r="AC45" s="80"/>
+      <c r="AD45" s="80"/>
+      <c r="AE45" s="80"/>
+      <c r="AF45" s="80"/>
+      <c r="AG45" s="80"/>
+      <c r="AH45" s="80"/>
+      <c r="AI45" s="80"/>
+      <c r="AJ45" s="80"/>
+      <c r="AK45" s="80"/>
+      <c r="AL45" s="80"/>
+      <c r="AM45" s="80"/>
+      <c r="AN45" s="80"/>
+      <c r="AO45" s="80"/>
+      <c r="AP45" s="80"/>
+      <c r="AQ45" s="80"/>
+      <c r="AR45" s="80"/>
+      <c r="AS45" s="80"/>
+      <c r="AT45" s="80"/>
+      <c r="AU45" s="80"/>
+      <c r="AV45" s="80"/>
+      <c r="AW45" s="80"/>
+      <c r="AX45" s="80"/>
+      <c r="AY45" s="80"/>
+      <c r="AZ45" s="80"/>
+      <c r="BA45" s="80"/>
+      <c r="BB45" s="80"/>
+      <c r="BC45" s="80"/>
+      <c r="BD45" s="80"/>
+      <c r="BE45" s="80"/>
+      <c r="BF45" s="80"/>
+      <c r="BG45" s="80"/>
+      <c r="BH45" s="80"/>
+      <c r="BI45" s="80"/>
+      <c r="BJ45" s="80"/>
+      <c r="BK45" s="80"/>
+      <c r="BL45" s="80"/>
+    </row>
+    <row r="46" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="17"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I46" s="80"/>
+      <c r="J46" s="80"/>
+      <c r="K46" s="80"/>
+      <c r="L46" s="80"/>
+      <c r="M46" s="80"/>
+      <c r="N46" s="80"/>
+      <c r="O46" s="80"/>
+      <c r="P46" s="80"/>
+      <c r="Q46" s="80"/>
+      <c r="R46" s="80"/>
+      <c r="S46" s="80"/>
+      <c r="T46" s="80"/>
+      <c r="U46" s="80"/>
+      <c r="V46" s="80"/>
+      <c r="W46" s="80"/>
+      <c r="X46" s="80"/>
+      <c r="Y46" s="80"/>
+      <c r="Z46" s="80"/>
+      <c r="AA46" s="80"/>
+      <c r="AB46" s="80"/>
+      <c r="AC46" s="80"/>
+      <c r="AD46" s="80"/>
+      <c r="AE46" s="80"/>
+      <c r="AF46" s="80"/>
+      <c r="AG46" s="80"/>
+      <c r="AH46" s="80"/>
+      <c r="AI46" s="80"/>
+      <c r="AJ46" s="80"/>
+      <c r="AK46" s="80"/>
+      <c r="AL46" s="80"/>
+      <c r="AM46" s="80"/>
+      <c r="AN46" s="80"/>
+      <c r="AO46" s="80"/>
+      <c r="AP46" s="80"/>
+      <c r="AQ46" s="80"/>
+      <c r="AR46" s="80"/>
+      <c r="AS46" s="80"/>
+      <c r="AT46" s="80"/>
+      <c r="AU46" s="80"/>
+      <c r="AV46" s="80"/>
+      <c r="AW46" s="80"/>
+      <c r="AX46" s="80"/>
+      <c r="AY46" s="80"/>
+      <c r="AZ46" s="80"/>
+      <c r="BA46" s="80"/>
+      <c r="BB46" s="80"/>
+      <c r="BC46" s="80"/>
+      <c r="BD46" s="80"/>
+      <c r="BE46" s="80"/>
+      <c r="BF46" s="80"/>
+      <c r="BG46" s="80"/>
+      <c r="BH46" s="80"/>
+      <c r="BI46" s="80"/>
+      <c r="BJ46" s="80"/>
+      <c r="BK46" s="80"/>
+      <c r="BL46" s="80"/>
+    </row>
+    <row r="47" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="17"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="75"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="79"/>
+      <c r="H47" s="79" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I47" s="82"/>
+      <c r="J47" s="82"/>
+      <c r="K47" s="82"/>
+      <c r="L47" s="82"/>
+      <c r="M47" s="82"/>
+      <c r="N47" s="82"/>
+      <c r="O47" s="82"/>
+      <c r="P47" s="82"/>
+      <c r="Q47" s="82"/>
+      <c r="R47" s="82"/>
+      <c r="S47" s="82"/>
+      <c r="T47" s="82"/>
+      <c r="U47" s="82"/>
+      <c r="V47" s="82"/>
+      <c r="W47" s="82"/>
+      <c r="X47" s="82"/>
+      <c r="Y47" s="82"/>
+      <c r="Z47" s="82"/>
+      <c r="AA47" s="82"/>
+      <c r="AB47" s="82"/>
+      <c r="AC47" s="82"/>
+      <c r="AD47" s="82"/>
+      <c r="AE47" s="82"/>
+      <c r="AF47" s="82"/>
+      <c r="AG47" s="82"/>
+      <c r="AH47" s="82"/>
+      <c r="AI47" s="82"/>
+      <c r="AJ47" s="82"/>
+      <c r="AK47" s="82"/>
+      <c r="AL47" s="82"/>
+      <c r="AM47" s="82"/>
+      <c r="AN47" s="82"/>
+      <c r="AO47" s="82"/>
+      <c r="AP47" s="82"/>
+      <c r="AQ47" s="82"/>
+      <c r="AR47" s="82"/>
+      <c r="AS47" s="82"/>
+      <c r="AT47" s="82"/>
+      <c r="AU47" s="82"/>
+      <c r="AV47" s="82"/>
+      <c r="AW47" s="82"/>
+      <c r="AX47" s="82"/>
+      <c r="AY47" s="82"/>
+      <c r="AZ47" s="82"/>
+      <c r="BA47" s="82"/>
+      <c r="BB47" s="82"/>
+      <c r="BC47" s="82"/>
+      <c r="BD47" s="82"/>
+      <c r="BE47" s="82"/>
+      <c r="BF47" s="82"/>
+      <c r="BG47" s="82"/>
+      <c r="BH47" s="82"/>
+      <c r="BI47" s="82"/>
+      <c r="BJ47" s="82"/>
+      <c r="BK47" s="82"/>
+      <c r="BL47" s="82"/>
+    </row>
+    <row r="48" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="G48" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4848,7 +5436,8 @@
     <mergeCell ref="T2:AK2"/>
     <mergeCell ref="AK4:AQ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D41">
+  <phoneticPr fontId="26" type="noConversion"/>
+  <conditionalFormatting sqref="D7:D47">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4862,16 +5451,16 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL41">
-    <cfRule type="expression" dxfId="2" priority="27">
+  <conditionalFormatting sqref="I5:BL47">
+    <cfRule type="expression" dxfId="0" priority="27">
       <formula>AND(today&gt;=I$5,today&lt;I$5+1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL41">
-    <cfRule type="expression" dxfId="1" priority="25">
+  <conditionalFormatting sqref="I7:BL47">
+    <cfRule type="expression" dxfId="2" priority="25">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="26" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;I$5+1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4900,7 +5489,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D41</xm:sqref>
+          <xm:sqref>D7:D47</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4924,29 +5513,29 @@
     <row r="1" spans="2:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:3" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="84" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C2" s="84"/>
     </row>
     <row r="3" spans="2:3" s="87" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="86" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C3" s="86"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="94" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:3" s="88" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B6" s="90" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="60" x14ac:dyDescent="0.2">
       <c r="B7" s="91" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15" x14ac:dyDescent="0.2">
@@ -4954,17 +5543,17 @@
     </row>
     <row r="9" spans="2:3" s="88" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B9" s="90" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="60" x14ac:dyDescent="0.2">
       <c r="B10" s="91" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B11" s="92" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15" x14ac:dyDescent="0.2">
@@ -4981,17 +5570,17 @@
     </row>
     <row r="15" spans="2:3" s="88" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B15" s="90" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="30" x14ac:dyDescent="0.2">
       <c r="B16" s="91" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B17" s="92" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="15" x14ac:dyDescent="0.2">
@@ -4999,12 +5588,12 @@
     </row>
     <row r="19" spans="2:2" s="88" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B19" s="90" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="60" x14ac:dyDescent="0.2">
       <c r="B20" s="91" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.2">
@@ -5012,7 +5601,7 @@
     </row>
     <row r="22" spans="2:2" ht="75" x14ac:dyDescent="0.2">
       <c r="B22" s="91" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/gantt-chart_[GROUP-3]ms.xlsx
+++ b/documentation/gantt-chart_[GROUP-3]ms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Reccess\Emdedded Systems\GROUP-3 PROJECT\Smart-Water-Level-Monitoring-System\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0359312-8A38-4FF1-94A5-861EBDC3C2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D4E13C-066E-4512-8F4E-4537D04B6669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1640,7 +1640,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BJ13" sqref="BJ13"/>
+      <selection pane="bottomLeft" activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
